--- a/www.eia.gov/electricity/monthly/xls/table_1_05_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_05_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="80">
   <si>
     <t>Table 1.5.A. Utility Scale Facility Net Generation from Petroleum Liquids</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,25 +1389,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4.6139999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="10">
         <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="10">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="H7" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
@@ -1418,8 +1418,8 @@
       <c r="K7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="10">
-        <v>2</v>
+      <c r="L7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>17</v>
@@ -1439,39 +1439,39 @@
         <v>1</v>
       </c>
       <c r="F8" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="13">
+        <v>-3</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13">
         <v>0.03</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.04</v>
-      </c>
       <c r="K8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="13">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13">
-        <v>3</v>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="13">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14">
-        <v>-0.57899999999999996</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>17</v>
@@ -1479,23 +1479,23 @@
       <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="13">
-        <v>1</v>
+      <c r="G9" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H9" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="K9" s="13">
-        <v>2</v>
-      </c>
-      <c r="L9" s="13">
-        <v>2</v>
+        <v>0.22</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,37 +1503,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C10" s="13">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="13">
+        <v>154</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>55</v>
-      </c>
-      <c r="H10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="13">
-        <v>3</v>
-      </c>
       <c r="K10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>17</v>
@@ -1553,19 +1553,19 @@
         <v>17</v>
       </c>
       <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
       </c>
       <c r="H11" s="13">
-        <v>0.14000000000000001</v>
+        <v>2</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.38</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>17</v>
@@ -1578,26 +1578,26 @@
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.436</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>17</v>
+        <v>0.09</v>
+      </c>
+      <c r="G12" s="13">
+        <v>6</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>17</v>
@@ -1620,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="13">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>17</v>
@@ -1629,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="13">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G13" s="13">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="11">
-        <v>-0.157</v>
-      </c>
-      <c r="E14" s="10">
-        <v>6</v>
+        <v>0.157</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G14" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H14" s="10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>17</v>
@@ -1682,36 +1682,36 @@
         <v>17</v>
       </c>
       <c r="K14" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13">
-        <v>2</v>
+      <c r="B15" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="14">
-        <v>7.5999999999999998E-2</v>
+      <c r="D15" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="G15" s="13">
-        <v>2</v>
+        <v>0.02</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H15" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>17</v>
@@ -1730,23 +1730,23 @@
       <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13">
-        <v>13</v>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="13">
-        <v>14</v>
-      </c>
-      <c r="D16" s="14">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="E16" s="13">
         <v>6</v>
       </c>
+      <c r="D16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="13">
-        <v>9</v>
-      </c>
-      <c r="G16" s="13">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H16" s="13">
         <v>2</v>
@@ -1758,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" s="13">
         <v>2</v>
@@ -1769,13 +1769,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" s="13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.23799999999999999</v>
+        <v>-0.218</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>17</v>
@@ -1784,22 +1784,22 @@
         <v>0.02</v>
       </c>
       <c r="G17" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>17</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3</v>
       </c>
       <c r="L17" s="13">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,34 +1807,34 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C18" s="10">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.153</v>
+        <v>0.129</v>
       </c>
       <c r="E18" s="10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F18" s="10">
         <v>20</v>
       </c>
       <c r="G18" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H18" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="10">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="K18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="10">
         <v>2</v>
@@ -1848,22 +1848,22 @@
         <v>4</v>
       </c>
       <c r="C19" s="13">
+        <v>5</v>
+      </c>
+      <c r="D19" s="14">
+        <v>-0.191</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="14">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>3</v>
-      </c>
       <c r="H19" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>17</v>
@@ -1883,19 +1883,19 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.38300000000000001</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E20" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1907,13 +1907,13 @@
         <v>17</v>
       </c>
       <c r="J20" s="13">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K20" s="13">
         <v>1</v>
       </c>
       <c r="L20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,16 +1921,16 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="13">
         <v>6</v>
       </c>
       <c r="D21" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="E21" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" s="13">
         <v>6</v>
@@ -1941,14 +1941,14 @@
       <c r="H21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="13">
         <v>0.24</v>
       </c>
-      <c r="J21" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>17</v>
+      <c r="K21" s="13">
+        <v>0.45</v>
       </c>
       <c r="L21" s="13">
         <v>0.06</v>
@@ -1959,37 +1959,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
+        <v>22</v>
+      </c>
+      <c r="C22" s="13">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E22" s="13">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13">
+        <v>14</v>
+      </c>
+      <c r="H22" s="13">
         <v>12</v>
       </c>
-      <c r="C22" s="13">
-        <v>12</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E22" s="13">
-        <v>3</v>
-      </c>
-      <c r="F22" s="13">
-        <v>3</v>
-      </c>
-      <c r="G22" s="13">
-        <v>8</v>
-      </c>
-      <c r="H22" s="13">
-        <v>8</v>
-      </c>
       <c r="I22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="13">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="13">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,25 +1997,25 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C23" s="13">
         <v>2</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.878</v>
+        <v>-0.85899999999999999</v>
       </c>
       <c r="E23" s="13">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F23" s="13">
         <v>2</v>
       </c>
       <c r="G23" s="13">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="H23" s="13">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>17</v>
@@ -2027,7 +2027,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,37 +2035,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24" s="11">
-        <v>0.54300000000000004</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="10">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="10">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L24" s="10">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2073,16 +2073,16 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="13">
         <v>3</v>
       </c>
       <c r="D25" s="14">
-        <v>1.325</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="E25" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" s="13">
         <v>3</v>
@@ -2111,19 +2111,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14">
-        <v>0.69199999999999995</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="E26" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>17</v>
@@ -2161,25 +2161,25 @@
         <v>17</v>
       </c>
       <c r="F27" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="13">
         <v>0.13</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0.04</v>
-      </c>
       <c r="K27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L27" s="13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2187,16 +2187,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C28" s="13">
         <v>5</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.28899999999999998</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="E28" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F28" s="13">
         <v>5</v>
@@ -2228,7 +2228,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="13">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>17</v>
@@ -2237,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="13">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2262,17 +2262,17 @@
       <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>17</v>
+      <c r="B30" s="13">
+        <v>3</v>
       </c>
       <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>17</v>
+      <c r="D30" s="14">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E30" s="13">
+        <v>3</v>
       </c>
       <c r="F30" s="13">
         <v>2</v>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="L30" s="13">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>17</v>
@@ -2313,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>17</v>
@@ -2339,31 +2339,31 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C32" s="10">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D32" s="11">
-        <v>0.30199999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="E32" s="10">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F32" s="10">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G32" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H32" s="10">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="10">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>17</v>
@@ -2380,7 +2380,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>17</v>
@@ -2389,13 +2389,13 @@
         <v>17</v>
       </c>
       <c r="F33" s="13">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>17</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="J34" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K34" s="13">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C35" s="13">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="D35" s="14">
-        <v>0.53</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="E35" s="13">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F35" s="13">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>17</v>
@@ -2490,38 +2490,38 @@
       <c r="A36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="13">
-        <v>7</v>
+      <c r="B36" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="13">
-        <v>4</v>
-      </c>
-      <c r="D36" s="14">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="E36" s="13">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F36" s="13">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="13">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="13">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2529,37 +2529,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="C37" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D37" s="14">
-        <v>0.41799999999999998</v>
+        <v>-1.538</v>
       </c>
       <c r="E37" s="13">
         <v>1</v>
       </c>
       <c r="F37" s="13">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="G37" s="13">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="H37" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="13">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L37" s="13">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,63 +2567,63 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C38" s="13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D38" s="14">
-        <v>0.72399999999999998</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="E38" s="13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F38" s="13">
-        <v>8</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G38" s="13">
+        <v>3</v>
       </c>
       <c r="H38" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>17</v>
+      <c r="L38" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="13">
-        <v>5</v>
+      <c r="B39" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C39" s="13">
-        <v>10</v>
-      </c>
-      <c r="D39" s="14">
-        <v>-0.51</v>
-      </c>
-      <c r="E39" s="13">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F39" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>17</v>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,34 +2646,34 @@
         <v>13</v>
       </c>
       <c r="C40" s="13">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D40" s="14">
-        <v>-7.8E-2</v>
+        <v>-0.71299999999999997</v>
       </c>
       <c r="E40" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40" s="13">
-        <v>10</v>
-      </c>
-      <c r="G40" s="13">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H40" s="13">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="13">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L40" s="13">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,25 +2681,25 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" s="14">
-        <v>0.16800000000000001</v>
+        <v>-0.36599999999999999</v>
       </c>
       <c r="E41" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H41" s="13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C42" s="10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D42" s="11">
-        <v>0.54900000000000004</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E42" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F42" s="10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>17</v>
@@ -2756,20 +2756,20 @@
       <c r="A43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>17</v>
+      <c r="B43" s="13">
+        <v>2</v>
       </c>
       <c r="C43" s="13">
-        <v>4</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="14">
+        <v>-0.60299999999999998</v>
       </c>
       <c r="E43" s="13">
         <v>1</v>
       </c>
       <c r="F43" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>17</v>
@@ -2795,19 +2795,19 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
+        <v>9</v>
+      </c>
+      <c r="C44" s="13">
         <v>11</v>
       </c>
-      <c r="C44" s="13">
-        <v>6</v>
-      </c>
       <c r="D44" s="14">
-        <v>0.91300000000000003</v>
+        <v>-0.223</v>
       </c>
       <c r="E44" s="13">
+        <v>9</v>
+      </c>
+      <c r="F44" s="13">
         <v>11</v>
-      </c>
-      <c r="F44" s="13">
-        <v>6</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2832,20 +2832,20 @@
       <c r="A45" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="13">
-        <v>2</v>
+      <c r="B45" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C45" s="13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="13">
-        <v>1</v>
+      <c r="E45" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F45" s="13">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="L45" s="13">
         <v>0.05</v>
@@ -2871,16 +2871,16 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C46" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="14">
-        <v>0.52800000000000002</v>
+        <v>3.5110000000000001</v>
       </c>
       <c r="E46" s="13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F46" s="13">
         <v>3</v>
@@ -2901,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="L46" s="13">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,31 +2909,31 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D47" s="11">
-        <v>-0.57599999999999996</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E47" s="10">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10">
+        <v>6</v>
+      </c>
+      <c r="G47" s="10">
         <v>4</v>
       </c>
-      <c r="F47" s="10">
-        <v>10</v>
-      </c>
-      <c r="G47" s="10">
-        <v>3</v>
-      </c>
       <c r="H47" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>17</v>
@@ -2946,26 +2946,26 @@
       <c r="A48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>17</v>
+      <c r="B48" s="13">
+        <v>7</v>
       </c>
       <c r="C48" s="13">
-        <v>5</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.59399999999999997</v>
       </c>
       <c r="E48" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" s="13">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="H48" s="13">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -2973,8 +2973,8 @@
       <c r="J48" s="13">
         <v>0</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>17</v>
+      <c r="K48" s="13">
+        <v>0.38</v>
       </c>
       <c r="L48" s="13">
         <v>1</v>
@@ -2991,13 +2991,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.64100000000000001</v>
+        <v>-0.61699999999999999</v>
       </c>
       <c r="E49" s="13">
         <v>1</v>
       </c>
       <c r="F49" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="14">
-        <v>6.4000000000000001E-2</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="E50" s="13">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>17</v>
       </c>
       <c r="L50" s="13">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,34 +3064,34 @@
         <v>5</v>
       </c>
       <c r="C51" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.496</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="E51" s="13">
         <v>2</v>
       </c>
       <c r="F51" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" s="13">
+        <v>3</v>
+      </c>
+      <c r="H51" s="13">
         <v>2</v>
       </c>
-      <c r="H51" s="13">
-        <v>5</v>
-      </c>
       <c r="I51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L51" s="13">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,19 +3099,19 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
+        <v>17</v>
+      </c>
+      <c r="C52" s="10">
+        <v>19</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="E52" s="10">
         <v>16</v>
       </c>
-      <c r="C52" s="10">
-        <v>15</v>
-      </c>
-      <c r="D52" s="11">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E52" s="10">
-        <v>15</v>
-      </c>
       <c r="F52" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G52" s="10">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>17</v>
       </c>
       <c r="L52" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,19 +3137,19 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
+        <v>5</v>
+      </c>
+      <c r="C53" s="13">
         <v>4</v>
       </c>
-      <c r="C53" s="13">
-        <v>3</v>
-      </c>
       <c r="D53" s="14">
-        <v>0.2</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="E53" s="13">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13">
         <v>4</v>
-      </c>
-      <c r="F53" s="13">
-        <v>3</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>17</v>
@@ -3187,7 +3187,7 @@
         <v>17</v>
       </c>
       <c r="F54" s="13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>17</v>
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F55" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G55" s="13">
         <v>0</v>
@@ -3289,25 +3289,25 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="C57" s="13">
         <v>1</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.64400000000000002</v>
+        <v>-0.94299999999999995</v>
       </c>
       <c r="E57" s="13">
-        <v>0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="F57" s="13">
         <v>1</v>
       </c>
       <c r="G57" s="13">
-        <v>0.45</v>
+        <v>0.09</v>
       </c>
       <c r="H57" s="13">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>17</v>
@@ -3339,7 +3339,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
@@ -3365,25 +3365,25 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
+        <v>2</v>
+      </c>
+      <c r="C59" s="13">
         <v>3</v>
       </c>
-      <c r="C59" s="13">
+      <c r="D59" s="14">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="D59" s="14">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="E59" s="13">
+      <c r="F59" s="13">
         <v>3</v>
       </c>
-      <c r="F59" s="13">
-        <v>2</v>
-      </c>
       <c r="G59" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="13">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C60" s="13">
         <v>5</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.14299999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="E60" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" s="13">
         <v>5</v>
@@ -3433,7 +3433,7 @@
         <v>17</v>
       </c>
       <c r="L60" s="13">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,13 +3441,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
+        <v>4</v>
+      </c>
+      <c r="C61" s="10">
         <v>7</v>
       </c>
-      <c r="C61" s="10">
-        <v>8</v>
-      </c>
       <c r="D61" s="11">
-        <v>-5.7000000000000002E-2</v>
+        <v>-0.46400000000000002</v>
       </c>
       <c r="E61" s="10">
         <v>3</v>
@@ -3455,20 +3455,20 @@
       <c r="F61" s="10">
         <v>4</v>
       </c>
-      <c r="G61" s="10">
-        <v>1</v>
+      <c r="G61" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="H61" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="K61" s="10">
-        <v>3</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="L61" s="10">
         <v>1</v>
@@ -3479,13 +3479,13 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C62" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="E62" s="13">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>17</v>
       </c>
       <c r="H62" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="K62" s="13">
-        <v>3</v>
+        <v>0.01</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="L62" s="13">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
         <v>17</v>
       </c>
       <c r="E63" s="13">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F63" s="13">
         <v>1</v>
@@ -3558,7 +3558,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>17</v>
@@ -3567,19 +3567,19 @@
         <v>17</v>
       </c>
       <c r="F64" s="13">
-        <v>0.04</v>
+        <v>0.48</v>
       </c>
       <c r="G64" s="13">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="H64" s="13">
-        <v>0.28000000000000003</v>
+        <v>2</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J64" s="13">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>17</v>
@@ -3593,37 +3593,37 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="C65" s="10">
-        <v>707</v>
+        <v>626</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.11</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F65" s="10">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="G65" s="10">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H65" s="10">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J65" s="10">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L65" s="10">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3631,19 +3631,19 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C66" s="13">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D66" s="14">
-        <v>-1.9E-2</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="E66" s="13">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F66" s="13">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3655,13 +3655,13 @@
         <v>17</v>
       </c>
       <c r="J66" s="13">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K66" s="13">
+        <v>4</v>
+      </c>
+      <c r="L66" s="13">
         <v>3</v>
-      </c>
-      <c r="L66" s="13">
-        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,37 +3669,37 @@
         <v>77</v>
       </c>
       <c r="B67" s="13">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="C67" s="13">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.12</v>
+        <v>-0.108</v>
       </c>
       <c r="E67" s="13">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="F67" s="13">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="G67" s="13">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H67" s="13">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="I67" s="13">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="J67" s="13">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="K67" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L67" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,37 +3707,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>941</v>
+        <v>1058</v>
       </c>
       <c r="C68" s="10">
-        <v>945</v>
+        <v>995</v>
       </c>
       <c r="D68" s="11">
-        <v>-4.0000000000000001E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="F68" s="10">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="G68" s="10">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="H68" s="10">
-        <v>216</v>
-      </c>
-      <c r="I68" s="10">
-        <v>8</v>
+        <v>235</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="J68" s="10">
         <v>6</v>
       </c>
       <c r="K68" s="10">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L68" s="10">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
